--- a/DB Specification/ENCLICK_테이블 명세서_PAY_COMP.xlsx
+++ b/DB Specification/ENCLICK_테이블 명세서_PAY_COMP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENSSEL\Desktop\workspace\Enclick\EnClick-DOCU\DB Specification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22573F97-DDEE-46D8-AB4D-32B8E6E34670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC9B65D-0DDE-4861-9CE5-71464CFA625D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="893" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-105" windowWidth="29040" windowHeight="15720" tabRatio="893" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 테이블 명세서" sheetId="89" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,10 +92,6 @@
   </si>
   <si>
     <t>ASC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -379,6 +375,30 @@
   </si>
   <si>
     <t>CO + 4자리 숫자 문자열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT(getdate())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGI_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDA_DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,6 +784,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -787,9 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1098,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="104" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1122,129 +1142,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
+      <c r="A1" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="20" t="s">
+      <c r="K2" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="20" t="s">
-        <v>19</v>
-      </c>
       <c r="K3" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="C4" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="20" t="s">
-        <v>22</v>
-      </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
+      <c r="C5" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
       <c r="N5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="C6" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
       <c r="N6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1252,7 +1272,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="18"/>
       <c r="N7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="5" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1260,13 +1280,13 @@
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>10</v>
@@ -1278,16 +1298,16 @@
         <v>8</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2" t="str">
@@ -1302,7 +1322,7 @@
         <v>USE ENCLICK</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -1319,13 +1339,13 @@
         <v>DROP TABLE dbo.PAY_COMP</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="14"/>
       <c r="N12" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1335,7 +1355,7 @@
         <v>USE ENCLICK</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -1350,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
@@ -1368,13 +1388,13 @@
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>84</v>
-      </c>
       <c r="M15" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N15" s="37"/>
     </row>
@@ -1383,7 +1403,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>13</v>
@@ -1396,23 +1416,23 @@
         <v>7</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M16" s="37"/>
       <c r="N16" s="37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1420,10 +1440,10 @@
         <v>3</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>1</v>
@@ -1436,46 +1456,70 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
       <c r="J17" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K17" s="10"/>
       <c r="M17" s="37"/>
       <c r="N17" s="37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="13">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="K18" s="10"/>
       <c r="M18" s="37"/>
       <c r="N18" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="13">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>89</v>
+      </c>
       <c r="K19" s="10"/>
       <c r="M19" s="37"/>
       <c r="N19" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1492,7 +1536,7 @@
       <c r="K20" s="10"/>
       <c r="M20" s="37"/>
       <c r="N20" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1509,7 +1553,7 @@
       <c r="K21" s="13"/>
       <c r="M21" s="37"/>
       <c r="N21" s="37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1526,7 +1570,7 @@
       <c r="K22" s="13"/>
       <c r="M22" s="37"/>
       <c r="N22" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1558,7 +1602,7 @@
       <c r="K24" s="10"/>
       <c r="M24" s="37"/>
       <c r="N24" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1590,7 +1634,7 @@
       <c r="K26" s="13"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1607,7 +1651,7 @@
       <c r="K27" s="12"/>
       <c r="M27" s="37"/>
       <c r="N27" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1639,7 +1683,7 @@
       <c r="K29" s="13"/>
       <c r="M29" s="37"/>
       <c r="N29" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1655,12 +1699,12 @@
       <c r="J31" s="4"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C32" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>14</v>
@@ -1668,17 +1712,17 @@
       <c r="J32" s="4"/>
       <c r="M32" s="37"/>
       <c r="N32" s="37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J33" s="4"/>
       <c r="M33" s="37"/>
       <c r="N33" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1709,7 +1753,7 @@
     </row>
     <row r="39" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="str">
-        <f t="shared" ref="B39:B44" si="0">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J16 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B16 &amp; "' "</f>
+        <f t="shared" ref="B39:B42" si="0">"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J16 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B16 &amp; "' "</f>
         <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'회사 종류 구분코드' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_COMP', @level2type=N'COLUMN',@level2name=N'COMP_DVCD' </v>
       </c>
       <c r="J39" s="4"/>
@@ -1724,36 +1768,24 @@
     <row r="41" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_COMP', @level2type=N'COLUMN',@level2name=N'' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'등록일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_COMP', @level2type=N'COLUMN',@level2name=N'REGI_DT' </v>
       </c>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_COMP', @level2type=N'COLUMN',@level2name=N'' </v>
+        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'수정일' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_COMP', @level2type=N'COLUMN',@level2name=N'UPDA_DT' </v>
       </c>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="2" t="e">
-        <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp;#REF! &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B20 &amp; "' "</f>
-        <v>#REF!</v>
-      </c>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_COMP', @level2type=N'COLUMN',@level2name=N'' </v>
-      </c>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="2" t="str">
-        <f>"EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'" &amp; J20 &amp; "' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'" &amp; $C$4 &amp; "', @level2type=N'COLUMN',@level2name=N'" &amp; B22 &amp; "' "</f>
-        <v xml:space="preserve">EXEC sys.sp_addextendedproperty @name=N'MS_Description', @value=N'' , @level0type=N'SCHEMA',@level0name=N'dbo', @level1type=N'TABLE',@level1name=N'PAY_COMP', @level2type=N'COLUMN',@level2name=N'' </v>
-      </c>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1780,7 +1812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C36B5F9-DD6C-4513-B25E-14CD7010AD98}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -1802,29 +1834,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+      <c r="A1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="45" t="str">
+        <v>15</v>
+      </c>
+      <c r="C2" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$2</f>
         <v>EnClick</v>
       </c>
-      <c r="D2" s="45"/>
+      <c r="D2" s="46"/>
       <c r="E2" s="20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$2</f>
@@ -1832,17 +1864,17 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="45" t="str">
+        <v>17</v>
+      </c>
+      <c r="C3" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$3</f>
         <v>ENCLICK</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$3</f>
@@ -1850,17 +1882,17 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="40"/>
       <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="45" t="str">
+      <c r="C4" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_COMP</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F4" s="20" t="str">
         <f>'테스트 테이블 명세서'!$K$4</f>
@@ -1868,40 +1900,40 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="45" t="str">
+      <c r="C5" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$5</f>
         <v>결제회사</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="19"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="40"/>
       <c r="B6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="45" t="str">
+      <c r="C6" s="46" t="str">
         <f>'테스트 테이블 명세서'!$C$6</f>
         <v>결제회사에 대한 정보가 담긴 테이블</v>
       </c>
-      <c r="D6" s="45"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1909,16 +1941,16 @@
         <v>0</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1926,13 +1958,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1977,24 +2009,24 @@
     </row>
     <row r="17" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="27" t="str">
         <f>'테스트 테이블 명세서'!$C$4</f>
         <v>PAY_COMP</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="36" t="str">
         <f>"FK"&amp;"_"&amp;C9&amp;"_TO_"&amp;C17&amp;"_1"</f>
         <v>FK_COMMON_CODE_TO_PAY_COMP_1</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2011,20 +2043,20 @@
     </row>
     <row r="19" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="25" t="str">
         <f>C9</f>
         <v>COMMON_CODE</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" s="30"/>
     </row>
@@ -2042,7 +2074,7 @@
     </row>
     <row r="22" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="32"/>
       <c r="D22" s="32"/>
@@ -2051,7 +2083,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="H24" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
